--- a/OS-Naming Conventions.xlsx
+++ b/OS-Naming Conventions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,154 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t>Cancer Embedded Operating System Naming Conventions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PART 1-------C language Naming Conventions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> public function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEBUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +166,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正喵呜体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="方正喵呜体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -42,23 +256,757 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +1291,1041 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="2:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="2:17" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="23"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="2:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" s="39"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="39"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="50"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+    </row>
+    <row r="25" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="70"/>
+    </row>
+    <row r="29" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="60"/>
+    </row>
+    <row r="31" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="70"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
+      <c r="Q34" s="70"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="70"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="70"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="70"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="70"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="70"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="70"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="70"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="70"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="70"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="70"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="70"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="70"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="70"/>
+    </row>
+    <row r="49" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="71"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="B16:C19"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B6:C10"/>
+    <mergeCell ref="B11:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>